--- a/modules/FS.CmsKitManagement/src/FS.CmsKitManagement.Domain.Shared/Files/Vocabularies/Vocabularies.xlsx
+++ b/modules/FS.CmsKitManagement/src/FS.CmsKitManagement.Domain.Shared/Files/Vocabularies/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\11003\fs.works.v4-1206\projects\FS.Abp\modules\FS.CmsKitManagement\src\FS.CmsKitManagement.Domain.Shared\Files\Vocabularies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C3A377-A757-46E4-9182-70E6386F93CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56E7B02-EF97-4B4B-8069-254814F2C214}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="33684" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="16410" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sport" sheetId="1" r:id="rId1"/>
@@ -362,16 +362,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -397,7 +399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -408,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -419,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -430,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -441,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
